--- a/biology/Botanique/Sinocrassula/Sinocrassula.xlsx
+++ b/biology/Botanique/Sinocrassula/Sinocrassula.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sinocrassula est un genre de plantes succulentes appartenant à la famille des Crassulaceae.
 Le nom "Sinocrassula" signifie "Crassula de Chine".
@@ -515,16 +527,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste des espèces
-Sinocrassula densirosulata
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Sinocrassula densirosulata
 Sinocrassula indica
 Sinocrassula paoshingensis
-Sinocrassula yunnanensis, la plus répandue
-Synonymes
-Crassula yunnanensis (Franchet)
-Sedum indicum var. yunnanensis (Franchet)
-Sedum pyramidale (Franchet)
-Sedum pyramidatum (Franchet)</t>
+Sinocrassula yunnanensis, la plus répandue</t>
         </is>
       </c>
     </row>
@@ -549,10 +561,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Crassula yunnanensis (Franchet)
+Sedum indicum var. yunnanensis (Franchet)
+Sedum pyramidale (Franchet)
+Sedum pyramidatum (Franchet)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sinocrassula</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sinocrassula</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sinocrassula se présente sous forme de rosettes très fournies de feuilles triangulaires allongées souples de couleur marron. Elle peut atteindre 20 cm de haut.
 La plante est très buissonnante.
@@ -562,31 +615,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Sinocrassula</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sinocrassula</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Mode de culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les plantes demandent un sol bien drainé et une exposition ensoleillée ou en ombre légère. Elles supportent un emplacement moins lumineux, mais dans ce cas se développent moins.
 Elle a besoin d'arrosages modérés, quasi nuls en hiver.
